--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1914.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1914.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B014A717-FF78-450A-BE0A-D445B91CF5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173660E7-17CE-4E3F-BCD5-5EF1CB9AFBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89910" yWindow="240" windowWidth="24855" windowHeight="22575" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89130" yWindow="930" windowWidth="24855" windowHeight="22575" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="127">
   <si>
-    <t>стр. 50-80</t>
-  </si>
-  <si>
     <t>губ</t>
   </si>
   <si>
@@ -418,6 +415,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>стр. I/33-57</t>
   </si>
 </sst>
 </file>
@@ -803,25 +803,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -833,8 +831,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="N96" sqref="N96"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -852,59 +851,59 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="O1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>204.4</v>
@@ -962,7 +961,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>577.5</v>
@@ -1020,7 +1019,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>1144</v>
@@ -1078,7 +1077,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>890.7</v>
@@ -1134,7 +1133,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>811.1</v>
@@ -1190,7 +1189,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>823.1</v>
@@ -1248,7 +1247,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>800.6</v>
@@ -1306,7 +1305,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>1922.3</v>
@@ -1364,7 +1363,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>1709.4</v>
@@ -1422,7 +1421,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>1844.6</v>
@@ -1480,7 +1479,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>850.8</v>
@@ -1538,7 +1537,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>1744.2</v>
@@ -1596,7 +1595,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>1498.6</v>
@@ -1654,7 +1653,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>1284</v>
@@ -1712,7 +1711,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>612.5</v>
@@ -1770,7 +1769,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>1956.7</v>
@@ -1828,7 +1827,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>810.1</v>
@@ -1886,7 +1885,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>778.2</v>
@@ -1944,7 +1943,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>280.10000000000002</v>
@@ -2002,7 +2001,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>1477.5</v>
@@ -2060,7 +2059,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>514.1</v>
@@ -2118,7 +2117,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
         <v>1370</v>
@@ -2176,7 +2175,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2">
         <v>1090.5999999999999</v>
@@ -2234,7 +2233,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="2">
         <v>783.5</v>
@@ -2292,7 +2291,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2">
         <v>902.9</v>
@@ -2350,7 +2349,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2">
         <v>749</v>
@@ -2408,7 +2407,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
         <v>205.8</v>
@@ -2466,7 +2465,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2">
         <v>957.3</v>
@@ -2524,7 +2523,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2">
         <v>1196.0999999999999</v>
@@ -2582,7 +2581,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2">
         <v>832.7</v>
@@ -2640,7 +2639,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
         <v>1833.7</v>
@@ -2698,7 +2697,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
         <v>1854.2</v>
@@ -2756,7 +2755,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="2">
         <v>1696.1</v>
@@ -2814,7 +2813,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
         <v>645.6</v>
@@ -2872,7 +2871,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2">
         <v>1251.3</v>
@@ -2930,7 +2929,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
         <v>1765.5</v>
@@ -2988,7 +2987,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="2">
         <v>387.7</v>
@@ -3046,7 +3045,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2">
         <v>1358.6</v>
@@ -3104,7 +3103,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>932.4</v>
@@ -3162,7 +3161,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2">
         <v>944.7</v>
@@ -3220,7 +3219,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2">
         <v>814.4</v>
@@ -3278,7 +3277,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2">
         <v>1583.8</v>
@@ -3336,7 +3335,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2">
         <v>1034.9000000000001</v>
@@ -3394,7 +3393,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2">
         <v>783</v>
@@ -3452,7 +3451,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2">
         <v>1455.5</v>
@@ -3510,7 +3509,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
         <v>1449.6</v>
@@ -3568,7 +3567,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B48" s="2">
         <v>1326</v>
@@ -3626,7 +3625,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B49" s="2">
         <v>474.4</v>
@@ -3684,7 +3683,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2">
         <v>1386.8</v>
@@ -3742,7 +3741,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2">
         <v>194.2</v>
@@ -3800,7 +3799,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2">
         <v>480.5</v>
@@ -3858,7 +3857,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B53" s="2">
         <v>54275.3</v>
@@ -3916,7 +3915,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2">
         <v>4623</v>
@@ -3974,7 +3973,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2">
         <v>825.4</v>
@@ -4032,7 +4031,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2">
         <v>565.79999999999995</v>
@@ -4090,7 +4089,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2">
         <v>467.3</v>
@@ -4148,7 +4147,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2">
         <v>362.9</v>
@@ -4206,7 +4205,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2">
         <v>629</v>
@@ -4264,7 +4263,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2">
         <v>619.1</v>
@@ -4322,7 +4321,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2">
         <v>326.8</v>
@@ -4380,7 +4379,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="2">
         <v>519.20000000000005</v>
@@ -4438,7 +4437,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2">
         <v>307.5</v>
@@ -4496,16 +4495,16 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E64" s="4" t="e">
         <f t="shared" si="0"/>
@@ -4513,13 +4512,13 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J64" s="4" t="e">
         <f t="shared" si="1"/>
@@ -4527,13 +4526,13 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O64" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4554,7 +4553,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2">
         <v>5727.6</v>
@@ -4612,7 +4611,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="2">
         <v>435.3</v>
@@ -4670,7 +4669,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2">
         <v>64.8</v>
@@ -4728,7 +4727,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2">
         <v>320.89999999999998</v>
@@ -4786,7 +4785,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2">
         <v>525</v>
@@ -4844,7 +4843,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2">
         <v>50.1</v>
@@ -4902,7 +4901,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>185.7</v>
@@ -4960,7 +4959,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>1388.3</v>
@@ -5018,7 +5017,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>505.3</v>
@@ -5076,7 +5075,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>627.29999999999995</v>
@@ -5134,7 +5133,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2">
         <v>62.8</v>
@@ -5192,7 +5191,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
         <v>531</v>
@@ -5250,7 +5249,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2">
         <v>508</v>
@@ -5308,7 +5307,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2">
         <v>42.3</v>
@@ -5366,7 +5365,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
         <v>480.8</v>
@@ -5424,7 +5423,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2">
         <v>4487</v>
@@ -5482,7 +5481,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2">
         <v>95.4</v>
@@ -5540,7 +5539,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2">
         <v>432.1</v>
@@ -5598,7 +5597,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
         <v>411.2</v>
@@ -5656,7 +5655,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
         <v>327.5</v>
@@ -5714,7 +5713,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2">
         <v>19.5</v>
@@ -5772,7 +5771,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="2">
         <v>231</v>
@@ -5830,7 +5829,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2">
         <v>21.4</v>
@@ -5888,7 +5887,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="2">
         <v>948.6</v>
@@ -5946,7 +5945,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2">
         <v>1839.7</v>
@@ -6004,7 +6003,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2">
         <v>160.6</v>
@@ -6062,7 +6061,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2">
         <v>5060.3</v>
@@ -6118,7 +6117,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2">
         <v>686.6</v>
@@ -6176,7 +6175,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2">
         <v>235.4</v>
@@ -6234,7 +6233,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2">
         <v>542.1</v>
@@ -6292,7 +6291,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2">
         <v>428.2</v>
@@ -6350,7 +6349,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2">
         <v>618.5</v>
@@ -6408,7 +6407,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2">
         <v>884.5</v>
@@ -6466,7 +6465,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2">
         <v>341.5</v>
@@ -6524,7 +6523,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2">
         <v>411.2</v>
@@ -6582,7 +6581,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2">
         <v>912.3</v>
@@ -6640,7 +6639,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2">
         <v>1377</v>
@@ -6698,7 +6697,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2">
         <v>221.3</v>
@@ -6756,7 +6755,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2">
         <v>243.4</v>
@@ -6814,7 +6813,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2">
         <v>241.7</v>
@@ -6872,7 +6871,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2">
         <v>161.5</v>
@@ -6930,7 +6929,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2">
         <v>107</v>
@@ -6988,7 +6987,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2">
         <v>96.9</v>
@@ -7046,7 +7045,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2">
         <v>147.80000000000001</v>
@@ -7104,7 +7103,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2">
         <v>157.4</v>
@@ -7162,7 +7161,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2">
         <v>75550.2</v>
